--- a/src/test/resources/testdata/Excel - EmployeeWithLocation.xlsx
+++ b/src/test/resources/testdata/Excel - EmployeeWithLocation.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabah\eclipse-workspace-9\TestNGFramework9\src\test\resources\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ACD6EA-89E8-48D0-80A6-3E8B6CCC0336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{079AFB4D-9FE7-4047-A39E-C1D6EF9B42F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Staff" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -74,13 +70,13 @@
     <t>Chinese Development Center</t>
   </si>
   <si>
-    <t>johnWickaa05152151</t>
-  </si>
-  <si>
-    <t>marybb012311411351511</t>
-  </si>
-  <si>
-    <t>davidcc012111412313513312</t>
+    <t>johnWicke1245</t>
+  </si>
+  <si>
+    <t>marybbb456</t>
+  </si>
+  <si>
+    <t>davidaa4488</t>
   </si>
 </sst>
 </file>
@@ -463,19 +459,19 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.8125" customWidth="1"/>
-    <col min="4" max="4" width="29.8125" customWidth="1"/>
+    <col min="3" max="3" width="40.875" customWidth="1"/>
+    <col min="4" max="4" width="29.875" customWidth="1"/>
     <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -509,7 +505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -526,7 +522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -564,7 +560,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0625" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -577,7 +573,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0625" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
